--- a/tests/system_test_2.xlsx
+++ b/tests/system_test_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="121">
   <si>
     <t>Номер</t>
   </si>
@@ -31,457 +31,334 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>/Проект/Уши/Лопоухие уши/7a0332a5b0aa2aea59720377cf4c0153_fitted_740x700.jpg</t>
+    <t>/Проект/Веки/Закрытые посередине/Q8eFXnqfi8w.jpg</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t xml:space="preserve">Лопоухий: </t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/113310-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Marios Lekkas 001.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/1aRi7EkKhis.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/o31ESSysbUw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/4b53b333dc667307b239750320f1cd44_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/75336-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/xUHvQgQbPdU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/de4948dc46772a10dc00d9450b0e3049_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/22b0bb0e2767e88461f7e8b4956ee93f_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/1keyt_hadson.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/53187d064d251ce2a1b04246c8d9e329_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/4pe0yu1XGWM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/f8bf36eefb213fbca72166c672b53262_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/75723594b6b48e4b04cc12d4ef4dc975_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/2U0jGMEA1Xo.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/91727-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/a367432b19d06ccebf51638aba823f51_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/QYvapbPu2VU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/800645227.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/xcgSLY4nUMo.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/orig.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/MG_7366.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/93323-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/eeW26CJVofs.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/laura-o-grejdi.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/4ZcOeyr53yM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ao4JPsbq8PY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/hpnKmGZKSMQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/r-qGlPTp84Q.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/7c86b232855f629ad71761677e3aa8df_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/original.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/eu9y2zGPZbs.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/106954-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/-tIkUvddrlo.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/acdcc2938686b9858b1a697c41ee80ec_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/95b733329e1a296cce9c923b9759ccb9.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/_icnR7Gi_Sg.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/72032-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/114618-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/JkNHXQcOTQI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/90078-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/40.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/CHjyHAyOR1s.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/VhmcKeDSJTI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/101407-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/gallery-shoots-2009-night-less-ordinary.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/sbr2-770x1024.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/9040b78f3330c8435e37c7967735d726_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/94435-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/аааа.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/modnye-muzhskie-strizhki-2010-2011-foto43.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/qmSa6et8F4I.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/yQXpb7iTLHU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/83785-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/2JToBFOgIrQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/2T5KteF97uk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/s1200.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/pricheski-dlja-malchikov-let-foto20.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/99967-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/img_2e3f93bc001bd904ddaaeee39c00f61f_2_800x600.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/78f4771fbe4eb560fc75fd2a7269af64_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/8nTD_M0u0B8.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/7jJdUmedflc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Dg6mwL2fMJA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/66960-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/EE_LztzddHA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/7d59e102d14f07ea0672f973de0d3c13_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/az0mykuBOgw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/29243cde5e5dac6c25ddc250a5353015_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/2332.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/1517586019_Lopouhie-zvezdy-Gollivuda-ili-znamenitosti-kotorym-ne-povezlo-s-ushami_20.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/92a3b67f6d59dae98c3aa6885764f57a_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Muzhskaya-strizhka-bob.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/59035-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/t4_y5IgjS_0.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Vladimir-Basov-12.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/96448-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/2746740.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/kwpt6tmUtoM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Kacey_Mottet_Klein.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/72386-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/054a2c5e496e49bf303fd21394123847bd5333a3.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/6-185.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/fL7tQW5CEfw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ZekkgTVLzEQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/c574edc2bd9326b114028d6757c5f7f6_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/t63joDDNZ8w.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/c6GXIlyghtE.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/oHjxjzt-Mv8.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/UBngdmFbpy4.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/media.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/3ee361236ba733d7acb98192141774ca_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/P2vvqQP8NX8.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/mens-hairstyles-images-with-long-ears-mens-hairstyles-for-big-ears-new-hairstyles-for-men-with-big-ears.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/pZTUt3f4feY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/vwRRyp_8_5Y.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/8fe55665f190ba88061dc1c0ed8afdcc_fitted_740x700.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/118327-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/rRZ7eDMcrsY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/u6UhGHIFTAY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/x_34e57825.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/yudjSt79K_I.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/eYD2V0kJDsc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/MNzlEaKivIU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/GvW-IHV5Zho.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/410x600_1_c57ca17252c7d71feb9c4769b1983c07@410x600_0xd42ee437_5621963761436870209.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/hbDDrrPlbNY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/5.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/89321-842-1.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/mY84cXvP9TQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/rexfeatures_5367978fn.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/rQPeFeWLUGk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/mens cut for blog and site.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/b181f1410962642ac7f09dc78b971074_i-63.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/60325ab18141105c8c618a4092157797.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/zOIYsKE98mg.jpg</t>
+    <t xml:space="preserve">Веки закрытые посередине: </t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/UrHeySJNuHs.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/GxnSIf9jbwQ.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/ja71V88vq2c.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/y1sxLZ8zSb0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/R6KEB-0y7xs.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/atuAVq4e_S0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/rcfZTZD1P2c.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/YRMp_u_TkTc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/Zhefugl182U.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/4VIs4Un1HkE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/tfKDVXZ4nHg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/HT6TZWslxCk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/IXfxIf1wKV8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/8L9kFfmNe8I.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/XG-QZsmw1x8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/GbvwQYWF7qg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/xN4b_tsMs_w.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/_JpxsiYEpzo.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/ITy-M7QyglA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/fHfKz-1evjk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/DxFT_SgkVf4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/36jhMYggzns.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/KjlZnh2eZHc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/TKl2g7anzzA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/4J2_4ZO1ryM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/-U4sc-_6yUc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/Y3caQFgn2xc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/AWlw0G-QWDk (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/T_JOBChKuOw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/gycI1mnvG50.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/2zbAzVgJ3NY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/zpzL6dTspcI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/wXMK67M6YqU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/Atc2EUrUoSY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/TEUzyjCUicM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/x_MzKtu9DYU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/_E5gNGoN2QE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/_jCIYzIXEKc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/0ZCS4k0PvWA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/C4rcxb4sm7Y.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/RKfUNCJpZog.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/m6uO7PV8hJk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/IvJWW2daR3s.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/U2S5hRpnrh8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/Go3pL_5t1PY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/I22QiGLaCf4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/jatWAdbdRkc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/DdlVg0On3jM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/qwyrm28AHjw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/SELNeFRMuME.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/yD4pNhLvO4A.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/Rc7WoiHNn-w.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/jqkb8V21Wec.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/1b5JxyL-Vrw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/6sEEOPttE7s.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/yb99brQp9fo.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/QGSKBLUc9EA (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/jZqInun--E4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/EkXVI6LC3ig.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/WVr9jNMLx4s.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/fgg0fDRkxc4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/TmmdbKT5eyk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/1TkT6nf2e5g.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/O0FHwsGqReY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/3LL-IWquViU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/InHC6twUnKg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/2oBxwI6ung8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/HUFwZ9wltyU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/yPmivCzQIws.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/DFpWhPhJh4A.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/XcyyjovJ2Qc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/3_9C72QGJsw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/HmiBL8oJSr4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/qVOlGE2-pvw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/24QGVIfLZyk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/1RCdoS-dEKs.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/ttk6AfR-FiY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/0ZFF8lakVfo.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/CgJMN_vhFxc (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/EJf9iphhkJg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/ws2G6U0U7mY.jpg</t>
   </si>
   <si>
     <t>Лицо не найдено</t>
   </si>
   <si>
-    <t>/Проект/Уши/Лопоухие уши/dioLSFpQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/iAwichjQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/QgHZM6UA.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/aaUUsO4w.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/nRjswudA.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/GFArgsSQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/wR042hiQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/5HFuu-Sw.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ZOjo9CHg.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/RHdBnCew.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/girls-haircuts-2015-fades-unique-biracial-mens-hairstyles-of-girls-haircuts-2015-fades.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/qw5RGwgA.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/SvGgkMcQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/post_5b75286304047.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ThgqM3nA.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/qY5yklCw.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/cq9fu97Q.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ZPfph2JQ.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/X3vzxQzw.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Zwf7sE4Q.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/Ur8vWP8A.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/tom-ford-brown-round-frame-tortoiseshell-acetate-optical-glasses-product-5-866757520-normal.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/AqrgmGHJ3II.jpg</t>
+    <t>/Проект/Веки/Закрытые посередине/h2vAInJuHEY.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/QbVIg1R79VE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/0mWl1l_2vaI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/R0ftTVtukhI.jpg</t>
   </si>
   <si>
     <t>Найдено больше одного лица</t>
   </si>
   <si>
-    <t>/Проект/Уши/Лопоухие уши/MqeKVcqIxNI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/Лопоухие уши/ySjcGoFddDo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/Лопоухие уши/4GOrhORb188.jpg </t>
+    <t>/Проект/Веки/Закрытые посередине/s60iohUS7uU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/AeM8ot2FNz0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые посередине/12bNBvA9X8o.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/0q4eyHLHC50.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неправильное определение точек лица. Лицо закрыто другими объектами. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/1kDaQzS4S5w.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неправильное определение точек лица. Неправильный ракурс. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/5POAJARg9ZQ.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/AN_nJNCsSi0.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Неправильное определение точек лица. Неизвестная причина. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Проект/Уши/Лопоухие уши/KAF4N80DF_g.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/Лопоухие уши/Klzir_ynlYc.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/Лопоухие уши/My0S1iAEewU.jpg </t>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/AWlw0G-QWDk%20(1).jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неправильное определение точек лица. Плохое освещение. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/C8JALJHIO-E.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/cgB8vZcow3U.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/CIXf6zONHF4.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/DpqSK751ic8.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/JPX7fnY24Xg.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/xcbAk5KkVvc.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/dEdz1QgHbGc.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые посередине/I2ZZE_xLPks (1).jpg </t>
   </si>
   <si>
     <t>Среднее значение</t>
@@ -839,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -893,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -910,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -927,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>62.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -944,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -961,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -978,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -995,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1012,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>69.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1029,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>69.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1046,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>52.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1063,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>49.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1080,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1097,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1114,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>52.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1122,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1131,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1139,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1148,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1156,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1165,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>39.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1173,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1182,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>29.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1190,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1207,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1216,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1224,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1233,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1241,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1250,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1258,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1267,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>52.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1275,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1284,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1292,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1301,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1309,7 +1186,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1318,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>75.89999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1326,7 +1203,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1335,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1343,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1352,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>9.899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1360,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1369,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1377,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1386,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1394,7 +1271,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1403,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>36.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1411,7 +1288,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1420,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>49.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1428,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1437,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>9.899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1445,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1454,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>42.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1462,7 +1339,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1479,7 +1356,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1488,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1496,7 +1373,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1505,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1513,7 +1390,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1522,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>9.899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1530,7 +1407,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1539,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>69.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1547,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1556,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1564,7 +1441,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1573,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="E43">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1581,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1590,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1598,7 +1475,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1607,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="E45">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1615,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1632,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1641,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>19.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1649,7 +1526,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1658,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>79.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1666,7 +1543,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1675,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1683,7 +1560,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1692,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>75.89999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1700,7 +1577,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1709,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="E51">
-        <v>39.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1717,7 +1594,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1726,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>62.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1734,7 +1611,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1743,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="E53">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1751,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1760,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E54">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1768,7 +1645,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1777,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="E55">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1785,7 +1662,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1794,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="E56">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1802,7 +1679,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1811,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="E57">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1819,7 +1696,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1828,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1836,7 +1713,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1845,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1853,7 +1730,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1862,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="E60">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1870,7 +1747,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1879,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="E61">
-        <v>79.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1887,7 +1764,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1896,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="E62">
-        <v>19.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1904,7 +1781,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1921,7 +1798,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1930,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>49.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1938,7 +1815,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1947,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <v>39.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1955,7 +1832,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1964,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <v>82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1972,7 +1849,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1989,7 +1866,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1998,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2006,7 +1883,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2015,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2023,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2032,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2040,7 +1917,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2049,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="E71">
-        <v>23.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2057,7 +1934,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2066,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="E72">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2074,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2083,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2091,7 +1968,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2100,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="E74">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2108,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2117,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="E75">
-        <v>79.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2125,7 +2002,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2134,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="E76">
-        <v>59.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2142,7 +2019,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2151,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="E77">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2159,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2168,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <v>82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2176,7 +2053,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2185,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <v>49.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2193,7 +2070,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2202,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="E80">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2210,7 +2087,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2219,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="E81">
-        <v>56.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2227,819 +2104,295 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82">
+      <c r="C88" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C92" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="B97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="B98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>79.19999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="B99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86">
-        <v>75.89999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="B101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88">
-        <v>75.89999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="B102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>39.59999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91">
-        <v>9.899999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95">
-        <v>56.09999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>69.3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>9.899999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="B103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99">
-        <v>39.59999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="C103" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>115</v>
       </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100">
-        <v>39.59999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>116</v>
       </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>92.39999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>117</v>
       </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>118</v>
       </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>119</v>
       </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="B108">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>120</v>
       </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>156</v>
-      </c>
-      <c r="B138">
-        <v>48.14622641509433</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>159</v>
-      </c>
-      <c r="B141">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>160</v>
-      </c>
-      <c r="B142">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143">
-        <v>56.09999999999999</v>
+      <c r="B109">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
